--- a/medicine/Psychotrope/Gulden_Draak/Gulden_Draak.xlsx
+++ b/medicine/Psychotrope/Gulden_Draak/Gulden_Draak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Gulden Draak (en néerlandais, « Dragon doré ») est une bière noire belge de fermentation haute (10,5%) brassée par Brouwerij Van Steenberge à Ertvelde, près de Gand, dans la province de Flandre Orientale. En 1998, l'American Tasting Institute a décerné à la Gulden Draak le titre de « meilleure bière du monde »[1]. Développant des arômes de cerise acide, de cassonade, de café et de caramel, c'est une bière de type triple; elle produit un col de mousse particulièrement riche, et la brasserie a confectionné un verre spécial pour mettre en valeur ce dernier.
+Gulden Draak (en néerlandais, « Dragon doré ») est une bière noire belge de fermentation haute (10,5%) brassée par Brouwerij Van Steenberge à Ertvelde, près de Gand, dans la province de Flandre Orientale. En 1998, l'American Tasting Institute a décerné à la Gulden Draak le titre de « meilleure bière du monde ». Développant des arômes de cerise acide, de cassonade, de café et de caramel, c'est une bière de type triple; elle produit un col de mousse particulièrement riche, et la brasserie a confectionné un verre spécial pour mettre en valeur ce dernier.
 Créée en 1986, cette bière d'orge maltée se conserve au moins deux ans et a une seconde fermentation en bouteille ou en fût. Une version de Noël (7,5%) portant le nom de Gulden Draak Vintage a été produite pendant la période 2005-2013. Depuis 2011, une nouvelle version, baptisée Gulden Draak 9000 Quadruple (9000 correspond au code postal de Gand) a été mise sur le marché. Après quelques années en édition limitée à partir de 2014, le Gulden Draak Brewmaster a également été ajouté à la gamme. La Gulden Draak Imperial Stout a suivi en 2018. En novembre 2020, la gamme s'est élargie avec le Gulden Draak Smoked.
 Le brasseur lui-même décrit le produit comme « la bière de fête par excellence », mais elle peut également être dégustée comme bière de dessert. La différence se situe au niveau de la température de service : 5 °C ou 12–15 °C.
 La bière porte le nom du dragon doré situé au sommet du beffroi de Gand.
